--- a/8. Advance Filters/Data+Tools.xlsx
+++ b/8. Advance Filters/Data+Tools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advance_Excel_BI\8. Advance Filters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7E4145-C9BC-4EC7-A402-5466D04F6797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F474BA7F-124B-4210-974C-68D32FA7DA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="862" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sorting" sheetId="2" r:id="rId1"/>
@@ -2039,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2311,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
